--- a/10_Aufgabenstellung/Bewertungsbogen Pflanzenwagen.xlsx
+++ b/10_Aufgabenstellung/Bewertungsbogen Pflanzenwagen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{4E08DA75-3BC2-4043-A7E2-F23AE90C18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{981ABC0C-2FF4-468C-846F-FD2A409EB937}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F04F2-65BE-4002-A80E-87AA98EA8090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61725" yWindow="8355" windowWidth="17280" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Anforderungsliste</t>
   </si>
   <si>
-    <t>Pflichtenheft, Prinzipzkizzen</t>
-  </si>
-  <si>
     <t>Funktion / Funktionsbeschrieb</t>
   </si>
   <si>
@@ -354,13 +351,33 @@
   </si>
   <si>
     <t>Die Noten wurde nach dieser Formel berechnet (max. Punktzahl ist 58)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pflichtenheft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Prinzipzkizzen</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +440,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1066,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1354,6 +1377,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,7 +1452,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1747,11 +1777,11 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1761,7 +1791,7 @@
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1774,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1787,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="3" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.2" customHeight="1">
+    <row r="4" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1855,7 @@
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
     </row>
-    <row r="5" spans="1:9" ht="21.2" customHeight="1">
+    <row r="5" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -1840,12 +1870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.2" customHeight="1">
+    <row r="6" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="49"/>
@@ -1857,10 +1887,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21.2" customHeight="1">
+    <row r="7" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
+      <c r="B7" s="126" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="49"/>
@@ -1872,10 +1902,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21.2" customHeight="1">
+    <row r="8" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="49"/>
@@ -1887,10 +1917,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.2" customHeight="1">
+    <row r="9" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="106"/>
       <c r="B9" s="107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="108"/>
       <c r="D9" s="109"/>
@@ -1900,10 +1930,10 @@
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
     </row>
-    <row r="10" spans="1:9" ht="21.2" customHeight="1">
+    <row r="10" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
+      <c r="B10" s="126" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="49"/>
@@ -1915,12 +1945,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="128" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="52"/>
@@ -1932,11 +1962,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="12" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="3"/>
       <c r="C12" s="100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="56"/>
@@ -1951,9 +1981,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.2" customHeight="1">
+    <row r="13" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>11</v>
@@ -1966,7 +1996,7 @@
       <c r="H13" s="83"/>
       <c r="I13" s="83"/>
     </row>
-    <row r="14" spans="1:9" ht="21.2" customHeight="1">
+    <row r="14" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
@@ -1981,12 +2011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.2" customHeight="1">
+    <row r="15" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="126" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="49"/>
@@ -1998,9 +2028,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21.2" customHeight="1">
+    <row r="16" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
@@ -2013,12 +2043,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21.2" customHeight="1">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="49"/>
@@ -2030,10 +2060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21.2" customHeight="1">
+    <row r="18" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>28</v>
+      <c r="B18" s="128" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="49"/>
@@ -2045,10 +2075,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
+      <c r="B19" s="126" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="52"/>
@@ -2060,11 +2090,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="56"/>
@@ -2079,12 +2109,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21.2" customHeight="1">
+    <row r="21" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -2094,12 +2124,12 @@
       <c r="H21" s="83"/>
       <c r="I21" s="83"/>
     </row>
-    <row r="22" spans="1:9" ht="21.2" customHeight="1">
+    <row r="22" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="128" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="49"/>
@@ -2111,10 +2141,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="53"/>
@@ -2126,10 +2156,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="C24" s="100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="71"/>
@@ -2144,12 +2174,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21.2" customHeight="1">
+    <row r="25" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -2159,7 +2189,7 @@
       <c r="H25" s="83"/>
       <c r="I25" s="83"/>
     </row>
-    <row r="26" spans="1:9" ht="21.2" customHeight="1">
+    <row r="26" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>12</v>
@@ -2174,9 +2204,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21.2" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>37</v>
+    <row r="27" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="127" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -2187,10 +2217,10 @@
       <c r="H27" s="84"/>
       <c r="I27" s="84"/>
     </row>
-    <row r="28" spans="1:9" ht="21.2" customHeight="1">
+    <row r="28" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>38</v>
+      <c r="B28" s="128" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="49"/>
@@ -2202,10 +2232,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21.2" customHeight="1">
+    <row r="29" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="3" t="s">
-        <v>39</v>
+      <c r="B29" s="126" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="49"/>
@@ -2217,10 +2247,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21.2" customHeight="1">
+    <row r="30" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="49"/>
@@ -2232,10 +2262,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21.2" customHeight="1">
+    <row r="31" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="49"/>
@@ -2247,12 +2277,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21.2" customHeight="1">
+    <row r="32" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="49"/>
@@ -2264,10 +2294,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21.2" customHeight="1">
+    <row r="33" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="49"/>
@@ -2279,10 +2309,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21.2" customHeight="1">
+    <row r="34" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="49"/>
@@ -2294,10 +2324,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21.2" customHeight="1">
+    <row r="35" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="49"/>
@@ -2309,10 +2339,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="36" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="53"/>
@@ -2324,11 +2354,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="37" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="40"/>
       <c r="C37" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="71"/>
       <c r="E37" s="74"/>
@@ -2343,15 +2373,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="38" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="C38" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="71"/>
       <c r="E38" s="74"/>
@@ -2364,12 +2394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="21.2" customHeight="1">
+    <row r="39" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="62"/>
@@ -2379,10 +2409,10 @@
       <c r="H39" s="83"/>
       <c r="I39" s="83"/>
     </row>
-    <row r="40" spans="1:9" ht="21.2" customHeight="1">
+    <row r="40" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="49"/>
@@ -2394,10 +2424,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="21.2" customHeight="1">
+    <row r="41" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="49"/>
@@ -2409,10 +2439,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="21.2" customHeight="1">
+    <row r="42" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="49"/>
@@ -2422,11 +2452,11 @@
       <c r="H42" s="84"/>
       <c r="I42" s="84"/>
     </row>
-    <row r="43" spans="1:9" ht="21.2" customHeight="1">
+    <row r="43" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="59"/>
@@ -2437,11 +2467,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="21.2" customHeight="1">
+    <row r="44" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="59"/>
@@ -2452,11 +2482,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="21.2" customHeight="1">
+    <row r="45" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="59"/>
@@ -2467,10 +2497,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="21.2" customHeight="1">
+    <row r="46" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="49"/>
@@ -2480,13 +2510,13 @@
       <c r="H46" s="84"/>
       <c r="I46" s="84"/>
     </row>
-    <row r="47" spans="1:9" ht="21.2" customHeight="1">
+    <row r="47" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="59"/>
@@ -2497,10 +2527,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="21.2" customHeight="1">
+    <row r="48" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="49"/>
@@ -2512,10 +2542,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="21.2" customHeight="1">
+    <row r="49" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="49"/>
@@ -2527,10 +2557,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="21.2" customHeight="1">
+    <row r="50" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="49"/>
@@ -2542,10 +2572,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="51" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="53"/>
@@ -2557,11 +2587,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="52" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="23"/>
       <c r="C52" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="74"/>
@@ -2576,12 +2606,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="21.2" customHeight="1">
+    <row r="53" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="62"/>
@@ -2591,10 +2621,10 @@
       <c r="H53" s="83"/>
       <c r="I53" s="83"/>
     </row>
-    <row r="54" spans="1:9" ht="21.2" customHeight="1">
+    <row r="54" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="62"/>
@@ -2606,10 +2636,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="21.2" customHeight="1">
+    <row r="55" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="49"/>
@@ -2619,11 +2649,11 @@
       <c r="H55" s="84"/>
       <c r="I55" s="84"/>
     </row>
-    <row r="56" spans="1:9" ht="21.2" customHeight="1">
+    <row r="56" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="59"/>
@@ -2634,11 +2664,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="21.2" customHeight="1">
+    <row r="57" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="3"/>
       <c r="C57" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="49"/>
       <c r="E57" s="59"/>
@@ -2649,11 +2679,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="21.2" customHeight="1">
+    <row r="58" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="59"/>
@@ -2664,10 +2694,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="21.2" customHeight="1">
+    <row r="59" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="49"/>
@@ -2677,11 +2707,11 @@
       <c r="H59" s="84"/>
       <c r="I59" s="84"/>
     </row>
-    <row r="60" spans="1:9" ht="21.2" customHeight="1">
+    <row r="60" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="49"/>
       <c r="E60" s="59"/>
@@ -2692,11 +2722,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="21.2" customHeight="1">
+    <row r="61" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="3"/>
       <c r="C61" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="49"/>
       <c r="E61" s="59"/>
@@ -2707,10 +2737,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="21.2" customHeight="1">
+    <row r="62" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="49"/>
@@ -2722,10 +2752,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="21.2" customHeight="1">
+    <row r="63" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="49"/>
@@ -2737,10 +2767,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="64" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="108"/>
       <c r="D64" s="114"/>
@@ -2750,11 +2780,11 @@
       <c r="H64" s="118"/>
       <c r="I64" s="118"/>
     </row>
-    <row r="65" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="65" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="23"/>
       <c r="C65" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" s="71"/>
       <c r="E65" s="74"/>
@@ -2769,12 +2799,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="21.2" customHeight="1">
+    <row r="66" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="62"/>
@@ -2784,10 +2814,10 @@
       <c r="H66" s="83"/>
       <c r="I66" s="83"/>
     </row>
-    <row r="67" spans="1:9" ht="21.2" customHeight="1">
+    <row r="67" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="49"/>
@@ -2799,10 +2829,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="21.2" customHeight="1">
+    <row r="68" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="49"/>
@@ -2814,10 +2844,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="21.2" customHeight="1">
+    <row r="69" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="49"/>
@@ -2829,10 +2859,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="21.2" customHeight="1">
+    <row r="70" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="49"/>
@@ -2844,10 +2874,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="21.2" customHeight="1">
+    <row r="71" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="51"/>
@@ -2859,10 +2889,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="72" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="86"/>
       <c r="D72" s="54"/>
@@ -2874,11 +2904,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="73" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="85"/>
       <c r="B73" s="25"/>
       <c r="C73" s="101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -2893,12 +2923,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="21.2" customHeight="1">
+    <row r="74" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="62"/>
@@ -2908,10 +2938,10 @@
       <c r="H74" s="83"/>
       <c r="I74" s="83"/>
     </row>
-    <row r="75" spans="1:9" ht="21.2" customHeight="1">
+    <row r="75" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="49"/>
@@ -2923,10 +2953,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="21.2" customHeight="1">
+    <row r="76" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="49"/>
@@ -2938,10 +2968,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="77" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="52"/>
@@ -2951,11 +2981,11 @@
       <c r="H77" s="45"/>
       <c r="I77" s="94"/>
     </row>
-    <row r="78" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="78" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="25"/>
       <c r="C78" s="102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="67"/>
@@ -2970,12 +3000,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="21.2" customHeight="1">
+    <row r="79" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="46"/>
@@ -2985,10 +3015,10 @@
       <c r="H79" s="83"/>
       <c r="I79" s="83"/>
     </row>
-    <row r="80" spans="1:9" ht="21.2" customHeight="1">
+    <row r="80" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="49"/>
@@ -3000,10 +3030,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="81" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="53"/>
@@ -3015,10 +3045,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="82" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="C82" s="100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="71"/>
       <c r="E82" s="71"/>
@@ -3033,12 +3063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="21.2" customHeight="1">
+    <row r="83" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="62"/>
@@ -3048,10 +3078,10 @@
       <c r="H83" s="83"/>
       <c r="I83" s="83"/>
     </row>
-    <row r="84" spans="1:9" ht="21.2" customHeight="1">
+    <row r="84" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="49"/>
@@ -3063,10 +3093,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="85" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="26"/>
       <c r="D85" s="60"/>
@@ -3078,11 +3108,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="86" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="3"/>
       <c r="C86" s="100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" s="66"/>
       <c r="E86" s="69"/>
@@ -3097,12 +3127,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="21.2" customHeight="1">
+    <row r="87" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="46"/>
@@ -3112,7 +3142,7 @@
       <c r="H87" s="83"/>
       <c r="I87" s="83"/>
     </row>
-    <row r="88" spans="1:9" ht="21.2" customHeight="1">
+    <row r="88" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12" t="s">
         <v>12</v>
@@ -3127,9 +3157,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="21.2" customHeight="1">
+    <row r="89" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="9"/>
@@ -3140,10 +3170,10 @@
       <c r="H89" s="44"/>
       <c r="I89" s="93"/>
     </row>
-    <row r="90" spans="1:9" ht="21.2" customHeight="1">
+    <row r="90" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="49"/>
@@ -3155,9 +3185,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="21.2" customHeight="1">
+    <row r="91" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="9"/>
@@ -3168,10 +3198,10 @@
       <c r="H91" s="84"/>
       <c r="I91" s="84"/>
     </row>
-    <row r="92" spans="1:9" ht="21.2" customHeight="1">
+    <row r="92" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="49"/>
@@ -3183,10 +3213,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="21.2" customHeight="1">
+    <row r="93" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="49"/>
@@ -3198,10 +3228,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="21.2" customHeight="1">
+    <row r="94" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="49"/>
@@ -3213,9 +3243,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="21.2" customHeight="1">
+    <row r="95" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="9"/>
@@ -3226,10 +3256,10 @@
       <c r="H95" s="84"/>
       <c r="I95" s="84"/>
     </row>
-    <row r="96" spans="1:9" ht="21.2" customHeight="1">
+    <row r="96" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="49"/>
@@ -3241,10 +3271,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="21.2" customHeight="1">
+    <row r="97" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="49"/>
@@ -3256,10 +3286,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="98" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="53"/>
@@ -3271,11 +3301,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="99" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="37"/>
       <c r="B99" s="23"/>
       <c r="C99" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99" s="71"/>
       <c r="E99" s="74"/>
@@ -3290,11 +3320,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="21.2" customHeight="1" thickBot="1">
+    <row r="100" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="3"/>
       <c r="C100" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D100" s="79"/>
       <c r="E100" s="80"/>
@@ -3309,24 +3339,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="28.15" thickTop="1" thickBot="1">
+    <row r="101" spans="1:9" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="C101" s="77"/>
       <c r="D101" s="26"/>
       <c r="E101" s="76"/>
       <c r="F101" s="78"/>
       <c r="G101" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H101" s="92"/>
       <c r="I101" s="95"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3335,9 +3365,9 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="19.149999999999999">
+    <row r="104" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="G104" s="119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3374,7 +3404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3390,62 +3420,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Teams_Channel_Section_Location xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <AppVersion xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <LMS_Mappings xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Teachers xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Self_Registration_Enabled xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <TeamsChannelId xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Invited_Teachers xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Invited_Students xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <CultureName xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Templates xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <FolderType xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Owner xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Student_Groups xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <Math_Settings xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5954586a-bae9-408a-b7c4-5e38477065a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010080D5ACB5D9A5C547A8A8A6B4DC26C831" ma:contentTypeVersion="36" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d7a45047883c5514381d1f862dec088">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xmlns:ns3="5954586a-bae9-408a-b7c4-5e38477065a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="34aeb3f1ae918c8f1a8c56ed432b74e6" ns2:_="" ns3:_="">
     <xsd:import namespace="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7"/>
@@ -3876,14 +3850,96 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Teams_Channel_Section_Location xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <AppVersion xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <LMS_Mappings xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Teachers xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Self_Registration_Enabled xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <TeamsChannelId xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Invited_Teachers xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Invited_Students xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <CultureName xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Templates xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <FolderType xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Owner xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Student_Groups xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <Math_Settings xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5954586a-bae9-408a-b7c4-5e38477065a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A686A6BC-AD03-4242-A509-915B93A7FC06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A686A6BC-AD03-4242-A509-915B93A7FC06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753FD138-AAAB-46CD-93E9-84A3CCF0DAEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB0D0B6-0EEB-45DB-9889-96243CF72E68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7"/>
+    <ds:schemaRef ds:uri="5954586a-bae9-408a-b7c4-5e38477065a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB0D0B6-0EEB-45DB-9889-96243CF72E68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753FD138-AAAB-46CD-93E9-84A3CCF0DAEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7"/>
+    <ds:schemaRef ds:uri="5954586a-bae9-408a-b7c4-5e38477065a8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/10_Aufgabenstellung/Bewertungsbogen Pflanzenwagen.xlsx
+++ b/10_Aufgabenstellung/Bewertungsbogen Pflanzenwagen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F04F2-65BE-4002-A80E-87AA98EA8090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62CE27E-DC22-4E1A-8022-F35FD4397F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Massstab</t>
   </si>
   <si>
-    <t>vollständig</t>
-  </si>
-  <si>
     <t>Montage- &amp; Betriebsanleitung</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Maschinenelemente (keine Zeichnungen)</t>
   </si>
   <si>
-    <t xml:space="preserve">              "            Handelsteile</t>
-  </si>
-  <si>
     <t>richtig eingesetzt</t>
   </si>
   <si>
@@ -353,24 +347,13 @@
     <t>Die Noten wurde nach dieser Formel berechnet (max. Punktzahl ist 58)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pflichtenheft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Prinzipzkizzen</t>
-    </r>
+    <t>Pflichtenheft, Prinzipzkizzen</t>
+  </si>
+  <si>
+    <t>vollständig (Zeichnung?)</t>
+  </si>
+  <si>
+    <t>Handelsteile</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1363,6 +1346,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,11 +1368,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1777,8 +1766,8 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,11 +1784,11 @@
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
@@ -1808,21 +1797,21 @@
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +1863,8 @@
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>106</v>
+      <c r="B6" s="123" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="49"/>
@@ -1889,7 +1878,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="9"/>
@@ -1919,7 +1908,7 @@
     </row>
     <row r="9" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="106"/>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="129" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="108"/>
@@ -1932,7 +1921,7 @@
     </row>
     <row r="10" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="9"/>
@@ -1946,10 +1935,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="123" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="10"/>
@@ -2012,10 +2001,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="9"/>
@@ -2029,7 +2018,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="122" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="12"/>
@@ -2044,10 +2033,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="121" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="9"/>
@@ -2062,7 +2051,7 @@
     </row>
     <row r="18" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="123" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="10"/>
@@ -2077,7 +2066,7 @@
     </row>
     <row r="19" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="121" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="9"/>
@@ -2125,10 +2114,10 @@
       <c r="I21" s="83"/>
     </row>
     <row r="22" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="123" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="10"/>
@@ -2143,7 +2132,7 @@
     </row>
     <row r="23" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="121" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="9"/>
@@ -2205,7 +2194,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="122" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="3"/>
@@ -2219,7 +2208,7 @@
     </row>
     <row r="28" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="123" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="10"/>
@@ -2234,7 +2223,7 @@
     </row>
     <row r="29" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="9"/>
@@ -2249,7 +2238,7 @@
     </row>
     <row r="30" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="123" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="10"/>
@@ -2264,7 +2253,7 @@
     </row>
     <row r="31" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="121" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="9"/>
@@ -2281,7 +2270,7 @@
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="123" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="10"/>
@@ -2296,7 +2285,7 @@
     </row>
     <row r="33" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="9"/>
@@ -2311,7 +2300,7 @@
     </row>
     <row r="34" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="123" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="10"/>
@@ -2326,7 +2315,7 @@
     </row>
     <row r="35" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="22"/>
@@ -2342,7 +2331,7 @@
     <row r="36" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="13" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="53"/>
@@ -2375,10 +2364,10 @@
     </row>
     <row r="38" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="C38" s="99" t="s">
         <v>20</v>
@@ -2396,10 +2385,10 @@
     </row>
     <row r="39" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="62"/>
@@ -2412,7 +2401,7 @@
     <row r="40" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="49"/>
@@ -2427,7 +2416,7 @@
     <row r="41" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="49"/>
@@ -2442,7 +2431,7 @@
     <row r="42" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="49"/>
@@ -2456,7 +2445,7 @@
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="59"/>
@@ -2471,7 +2460,7 @@
       <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="59"/>
@@ -2486,7 +2475,7 @@
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="59"/>
@@ -2500,7 +2489,7 @@
     <row r="46" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="49"/>
@@ -2513,10 +2502,10 @@
     <row r="47" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="59"/>
@@ -2530,7 +2519,7 @@
     <row r="48" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="49"/>
@@ -2545,7 +2534,7 @@
     <row r="49" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="49"/>
@@ -2560,7 +2549,7 @@
     <row r="50" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="49"/>
@@ -2575,7 +2564,7 @@
     <row r="51" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="53"/>
@@ -2608,7 +2597,7 @@
     </row>
     <row r="53" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>35</v>
@@ -2624,7 +2613,7 @@
     <row r="54" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="62"/>
@@ -2639,7 +2628,7 @@
     <row r="55" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="49"/>
@@ -2653,7 +2642,7 @@
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="59"/>
@@ -2668,7 +2657,7 @@
       <c r="A57" s="11"/>
       <c r="B57" s="3"/>
       <c r="C57" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" s="49"/>
       <c r="E57" s="59"/>
@@ -2683,7 +2672,7 @@
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="59"/>
@@ -2697,7 +2686,7 @@
     <row r="59" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="49"/>
@@ -2711,7 +2700,7 @@
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60" s="49"/>
       <c r="E60" s="59"/>
@@ -2726,7 +2715,7 @@
       <c r="A61" s="11"/>
       <c r="B61" s="3"/>
       <c r="C61" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="49"/>
       <c r="E61" s="59"/>
@@ -2740,7 +2729,7 @@
     <row r="62" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="49"/>
@@ -2755,7 +2744,7 @@
     <row r="63" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="49"/>
@@ -2770,7 +2759,7 @@
     <row r="64" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="107" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" s="108"/>
       <c r="D64" s="114"/>
@@ -2801,7 +2790,7 @@
     </row>
     <row r="66" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>35</v>
@@ -2817,7 +2806,7 @@
     <row r="67" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="49"/>
@@ -2832,7 +2821,7 @@
     <row r="68" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="49"/>
@@ -2847,7 +2836,7 @@
     <row r="69" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="49"/>
@@ -2862,7 +2851,7 @@
     <row r="70" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="49"/>
@@ -2877,7 +2866,7 @@
     <row r="71" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="51"/>
@@ -2892,7 +2881,7 @@
     <row r="72" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="86"/>
       <c r="D72" s="54"/>
@@ -2925,10 +2914,10 @@
     </row>
     <row r="74" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="62"/>
@@ -2941,7 +2930,7 @@
     <row r="75" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="49"/>
@@ -2956,7 +2945,7 @@
     <row r="76" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="49"/>
@@ -2971,7 +2960,7 @@
     <row r="77" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="52"/>
@@ -3002,10 +2991,10 @@
     </row>
     <row r="79" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="46"/>
@@ -3018,7 +3007,7 @@
     <row r="80" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="49"/>
@@ -3033,7 +3022,7 @@
     <row r="81" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="53"/>
@@ -3065,10 +3054,10 @@
     </row>
     <row r="83" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="62"/>
@@ -3081,7 +3070,7 @@
     <row r="84" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="49"/>
@@ -3096,7 +3085,7 @@
     <row r="85" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C85" s="26"/>
       <c r="D85" s="60"/>
@@ -3129,10 +3118,10 @@
     </row>
     <row r="87" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="46"/>
@@ -3159,7 +3148,7 @@
     </row>
     <row r="89" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="9"/>
@@ -3173,7 +3162,7 @@
     <row r="90" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="49"/>
@@ -3187,7 +3176,7 @@
     </row>
     <row r="91" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="9"/>
@@ -3201,7 +3190,7 @@
     <row r="92" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="49"/>
@@ -3216,7 +3205,7 @@
     <row r="93" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="49"/>
@@ -3231,7 +3220,7 @@
     <row r="94" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="49"/>
@@ -3245,7 +3234,7 @@
     </row>
     <row r="95" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="9"/>
@@ -3259,7 +3248,7 @@
     <row r="96" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="49"/>
@@ -3274,7 +3263,7 @@
     <row r="97" spans="1:9" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="49"/>
@@ -3289,7 +3278,7 @@
     <row r="98" spans="1:9" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="53"/>
@@ -3324,7 +3313,7 @@
       <c r="A100" s="11"/>
       <c r="B100" s="3"/>
       <c r="C100" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="79"/>
       <c r="E100" s="80"/>
@@ -3341,17 +3330,17 @@
     </row>
     <row r="101" spans="1:9" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C101" s="77"/>
       <c r="D101" s="26"/>
       <c r="E101" s="76"/>
       <c r="F101" s="78"/>
       <c r="G101" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H101" s="92"/>
       <c r="I101" s="95"/>
@@ -3367,7 +3356,7 @@
     </row>
     <row r="104" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="G104" s="119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3411,15 +3400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010080D5ACB5D9A5C547A8A8A6B4DC26C831" ma:contentTypeVersion="36" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="8d7a45047883c5514381d1f862dec088">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7" xmlns:ns3="5954586a-bae9-408a-b7c4-5e38477065a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="34aeb3f1ae918c8f1a8c56ed432b74e6" ns2:_="" ns3:_="">
     <xsd:import namespace="4ec5a2d1-872f-46b3-83ae-e3f81ffd97c7"/>
@@ -3850,6 +3830,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3907,14 +3896,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A686A6BC-AD03-4242-A509-915B93A7FC06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB0D0B6-0EEB-45DB-9889-96243CF72E68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3933,6 +3914,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A686A6BC-AD03-4242-A509-915B93A7FC06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753FD138-AAAB-46CD-93E9-84A3CCF0DAEC}">
   <ds:schemaRefs>
